--- a/biology/Zoologie/Aceria_guerreronis/Aceria_guerreronis.xlsx
+++ b/biology/Zoologie/Aceria_guerreronis/Aceria_guerreronis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aceria guerreronis, l'Acarien du cocotier, est une espèce d'acariens de la famille des Eriophyidae, vraisemblablement originaire d'Amérique.
-Cet acarien est un ravageur des plantations de cocotiers[1]. 
-Il peut être dévastateur sur le plan économique et détruire jusqu'à 90 % de la production de noix de coco. Les noix sont infestées et blessées par des acariens qui s'alimentent dans la partie couverte par le périanthe persistant sur la noix immature[2].
+Cet acarien est un ravageur des plantations de cocotiers. 
+Il peut être dévastateur sur le plan économique et détruire jusqu'à 90 % de la production de noix de coco. Les noix sont infestées et blessées par des acariens qui s'alimentent dans la partie couverte par le périanthe persistant sur la noix immature.
 </t>
         </is>
       </c>
